--- a/main_sheet.xlsx
+++ b/main_sheet.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,13 +438,11 @@
   <cols>
     <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
     <col width="7.199999999999999" customWidth="1" min="2" max="2"/>
-    <col width="10.8" customWidth="1" min="3" max="3"/>
-    <col width="26.4" customWidth="1" min="4" max="4"/>
-    <col width="9.6" customWidth="1" min="5" max="5"/>
-    <col width="13.2" customWidth="1" min="6" max="6"/>
+    <col width="21.6" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="16.8" customWidth="1" min="5" max="5"/>
+    <col width="8.4" customWidth="1" min="6" max="6"/>
     <col width="14.4" customWidth="1" min="7" max="7"/>
-    <col width="8.4" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,156 +458,28 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Transaction Type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Sub Service</t>
+          <t>Transaction Description</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Extras</t>
+          <t>Amount (EGP)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Price EGP</t>
+          <t>Notes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Discount %</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Operator</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>safagvdsavgdasvgdasf</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
+          <t>Logged by:</t>
+        </is>
       </c>
     </row>
   </sheetData>
